--- a/data/trans_orig/CoTrAQ_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ_R2-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>27087</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18254</v>
+        <v>18353</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37510</v>
+        <v>38085</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2294454966298932</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1546205589659418</v>
+        <v>0.155458960416983</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3177345587268977</v>
+        <v>0.3226026376446698</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -763,19 +763,19 @@
         <v>19764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12572</v>
+        <v>12966</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28856</v>
+        <v>29257</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2343984349285305</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1491021797316882</v>
+        <v>0.1537766203249216</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3422288128310564</v>
+        <v>0.3469838205623074</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -784,19 +784,19 @@
         <v>46851</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34366</v>
+        <v>35124</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59725</v>
+        <v>59371</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2315091068652153</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1698142843453499</v>
+        <v>0.1735588345319475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2951243546850394</v>
+        <v>0.2933732232316478</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>90969</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>80546</v>
+        <v>79971</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>99802</v>
+        <v>99703</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7705545033701068</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.682265441273103</v>
+        <v>0.6773973623553302</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8453794410340583</v>
+        <v>0.8445410395830171</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>57</v>
@@ -834,19 +834,19 @@
         <v>64554</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55462</v>
+        <v>55061</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71746</v>
+        <v>71352</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7656015650714695</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6577711871689436</v>
+        <v>0.6530161794376924</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8508978202683117</v>
+        <v>0.8462233796750782</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>147</v>
@@ -855,19 +855,19 @@
         <v>155523</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>142649</v>
+        <v>143003</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>168008</v>
+        <v>167250</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7684908931347847</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7048756453149606</v>
+        <v>0.7066267767683524</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.83018571565465</v>
+        <v>0.8264411654680526</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>19158</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11570</v>
+        <v>12316</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28575</v>
+        <v>28823</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1125415259585916</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06796361329824603</v>
+        <v>0.0723465171758028</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1678596056282278</v>
+        <v>0.1693164648629962</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -980,19 +980,19 @@
         <v>14867</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8506</v>
+        <v>8557</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23841</v>
+        <v>24015</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1284940026276012</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07351792689604159</v>
+        <v>0.07396235515781249</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2060607715747734</v>
+        <v>0.2075592566138438</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -1001,19 +1001,19 @@
         <v>34025</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24302</v>
+        <v>24868</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47134</v>
+        <v>47411</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1189965269411779</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08499016623518307</v>
+        <v>0.08696974015580598</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1648410370914788</v>
+        <v>0.1658110988396023</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>151076</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>141659</v>
+        <v>141411</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>158664</v>
+        <v>157918</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8874584740414084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8321403943717725</v>
+        <v>0.8306835351370033</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.932036386701754</v>
+        <v>0.927653482824197</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>92</v>
@@ -1051,19 +1051,19 @@
         <v>100833</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>91859</v>
+        <v>91685</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>107194</v>
+        <v>107143</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8715059973723988</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7939392284252266</v>
+        <v>0.7924407433861564</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9264820731039584</v>
+        <v>0.9260376448421878</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>231</v>
@@ -1072,19 +1072,19 @@
         <v>251909</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>238800</v>
+        <v>238523</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>261632</v>
+        <v>261066</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8810034730588221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.835158962908521</v>
+        <v>0.8341889011603975</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9150098337648167</v>
+        <v>0.9130302598441937</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>16169</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10233</v>
+        <v>9617</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24975</v>
+        <v>24130</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1159571278897465</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07338794654786923</v>
+        <v>0.06897158978728866</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1791103043588811</v>
+        <v>0.1730460692222917</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1197,19 +1197,19 @@
         <v>11002</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5492</v>
+        <v>5931</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18723</v>
+        <v>18128</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1524318190643426</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07608823600002941</v>
+        <v>0.08216752629880167</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2594068835135259</v>
+        <v>0.2511623330585033</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -1218,19 +1218,19 @@
         <v>27171</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18577</v>
+        <v>17844</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38653</v>
+        <v>37077</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1283974967200307</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08778813428407348</v>
+        <v>0.08432186970759586</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1826537157611507</v>
+        <v>0.1752103580269621</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>123272</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>114466</v>
+        <v>115311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>129208</v>
+        <v>129824</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8840428721102536</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.820889695641119</v>
+        <v>0.8269539307777083</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9266120534521309</v>
+        <v>0.9310284102127113</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -1268,19 +1268,19 @@
         <v>61174</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>53453</v>
+        <v>54048</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>66684</v>
+        <v>66245</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8475681809356573</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7405931164864745</v>
+        <v>0.7488376669414967</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9239117639999707</v>
+        <v>0.9178324737011984</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>183</v>
@@ -1289,19 +1289,19 @@
         <v>184446</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>172964</v>
+        <v>174540</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>193040</v>
+        <v>193773</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8716025032799692</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.81734628423885</v>
+        <v>0.8247896419730378</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9122118657159267</v>
+        <v>0.9156781302924041</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>14506</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8339</v>
+        <v>7974</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25099</v>
+        <v>25545</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1016599962375156</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05844435586182815</v>
+        <v>0.05588528581715164</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1758990737131227</v>
+        <v>0.1790269755385988</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1414,19 +1414,19 @@
         <v>14903</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8256</v>
+        <v>8454</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23408</v>
+        <v>23727</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1524474852148621</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08445426765103604</v>
+        <v>0.08648319632809329</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2394492197168456</v>
+        <v>0.2427159010909015</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -1435,19 +1435,19 @@
         <v>29409</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19428</v>
+        <v>19819</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41306</v>
+        <v>42235</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.122308309354913</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08080165735723385</v>
+        <v>0.08242513094988785</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1717886964497596</v>
+        <v>0.1756523837917515</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>128183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>117590</v>
+        <v>117144</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>134350</v>
+        <v>134715</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8983400037624844</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.824100926286877</v>
+        <v>0.8209730244614009</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9415556441381717</v>
+        <v>0.9441147141828482</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -1485,19 +1485,19 @@
         <v>82853</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74348</v>
+        <v>74029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>89500</v>
+        <v>89302</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8475525147851378</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7605507802831548</v>
+        <v>0.7572840989090982</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9155457323489641</v>
+        <v>0.9135168036719065</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>197</v>
@@ -1506,19 +1506,19 @@
         <v>211037</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>199140</v>
+        <v>198211</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>221018</v>
+        <v>220627</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.877691690645087</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8282113035502402</v>
+        <v>0.8243476162082485</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9191983426427659</v>
+        <v>0.9175748690501123</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>17049</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10892</v>
+        <v>9810</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26839</v>
+        <v>25816</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2124008821826912</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1356943899741583</v>
+        <v>0.1222226140283966</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3343745782460199</v>
+        <v>0.3216327943042713</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1631,19 +1631,19 @@
         <v>20328</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13895</v>
+        <v>13838</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28857</v>
+        <v>27728</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3788000002829686</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2589153669466818</v>
+        <v>0.2578647158265265</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5377244018626426</v>
+        <v>0.5166782502776084</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -1652,19 +1652,19 @@
         <v>37377</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27732</v>
+        <v>27012</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49836</v>
+        <v>48062</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2790749843061977</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2070574549779593</v>
+        <v>0.2016864263968563</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3720979889102669</v>
+        <v>0.3588535921655138</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>63218</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53428</v>
+        <v>54451</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69375</v>
+        <v>70457</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7875991178173088</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6656254217539794</v>
+        <v>0.6783672056957287</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8643056100258417</v>
+        <v>0.8777773859716036</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -1702,19 +1702,19 @@
         <v>33337</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24808</v>
+        <v>25937</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39770</v>
+        <v>39827</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6211999997170314</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4622755981373575</v>
+        <v>0.4833217497223916</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7410846330533183</v>
+        <v>0.7421352841734735</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>91</v>
@@ -1723,19 +1723,19 @@
         <v>96556</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>84097</v>
+        <v>85871</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>106201</v>
+        <v>106921</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7209250156938023</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6279020110897333</v>
+        <v>0.6411464078344863</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7929425450220408</v>
+        <v>0.7983135736031437</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>7770</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3671</v>
+        <v>3761</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14047</v>
+        <v>14256</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06999423362999561</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03306859275780628</v>
+        <v>0.03388065545488537</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1265378627124286</v>
+        <v>0.1284230349374796</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1848,19 +1848,19 @@
         <v>5039</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1966</v>
+        <v>1889</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10746</v>
+        <v>11280</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09442205324558035</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03683231672378236</v>
+        <v>0.03540098756916416</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2013515057581416</v>
+        <v>0.2113636882392624</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -1869,19 +1869,19 @@
         <v>12809</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6761</v>
+        <v>7036</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21115</v>
+        <v>20122</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07792527339317433</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04113092974957724</v>
+        <v>0.04280135134632337</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1284551132955742</v>
+        <v>0.1224140421376852</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>103238</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>96961</v>
+        <v>96752</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>107337</v>
+        <v>107247</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9300057663700044</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8734621372875713</v>
+        <v>0.8715769650625202</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9669314072421937</v>
+        <v>0.9661193445451146</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -1919,19 +1919,19 @@
         <v>48330</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>42623</v>
+        <v>42089</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51403</v>
+        <v>51480</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9055779467544196</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7986484942418581</v>
+        <v>0.7886363117607388</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9631676832762176</v>
+        <v>0.9645990124308359</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>140</v>
@@ -1940,19 +1940,19 @@
         <v>151568</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>143262</v>
+        <v>144255</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>157616</v>
+        <v>157341</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9220747266068257</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.871544886704426</v>
+        <v>0.877585957862315</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9588690702504228</v>
+        <v>0.9571986486536767</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>37506</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27150</v>
+        <v>27774</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49213</v>
+        <v>51131</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1441917597786109</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1043784070599731</v>
+        <v>0.1067774633800227</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1892014134388215</v>
+        <v>0.1965730486316293</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -2065,19 +2065,19 @@
         <v>30114</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20366</v>
+        <v>20703</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41736</v>
+        <v>41596</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1748036019023407</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1182212610635854</v>
+        <v>0.1201774026757955</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2422650994308709</v>
+        <v>0.2414523501523455</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>61</v>
@@ -2086,19 +2086,19 @@
         <v>67620</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>53189</v>
+        <v>52571</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86454</v>
+        <v>83787</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1563883696893691</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1230120301325176</v>
+        <v>0.1215842327919007</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1999474593007642</v>
+        <v>0.19377876186018</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>222605</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210898</v>
+        <v>208980</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>232961</v>
+        <v>232337</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8558082402213891</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8107985865611783</v>
+        <v>0.8034269513683706</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.895621592940027</v>
+        <v>0.8932225366199771</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>135</v>
@@ -2136,19 +2136,19 @@
         <v>142160</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>130538</v>
+        <v>130678</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>151908</v>
+        <v>151571</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8251963980976593</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7577349005691291</v>
+        <v>0.7585476498476548</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8817787389364146</v>
+        <v>0.8798225973242048</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>343</v>
@@ -2157,19 +2157,19 @@
         <v>364765</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>345931</v>
+        <v>348598</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>379196</v>
+        <v>379814</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8436116303106309</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8000525406992358</v>
+        <v>0.8062212381398201</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8769879698674824</v>
+        <v>0.8784157672080994</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>43788</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32146</v>
+        <v>31631</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57416</v>
+        <v>58519</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.123670911860137</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0907903827796528</v>
+        <v>0.0893343579411615</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1621600807160538</v>
+        <v>0.1652749940976593</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -2282,19 +2282,19 @@
         <v>37550</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27320</v>
+        <v>27171</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52141</v>
+        <v>50433</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1487215179230614</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1082036421947385</v>
+        <v>0.1076151429664084</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.206507938888219</v>
+        <v>0.1997465016939815</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -2303,19 +2303,19 @@
         <v>81338</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>65844</v>
+        <v>64969</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100788</v>
+        <v>99339</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1340985629418272</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1085543541924838</v>
+        <v>0.1071105660715353</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1661645597667608</v>
+        <v>0.1637749237662976</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>310281</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>296653</v>
+        <v>295550</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>321923</v>
+        <v>322438</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.876329088139863</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8378399192839461</v>
+        <v>0.8347250059023413</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.909209617220347</v>
+        <v>0.9106656420588386</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>197</v>
@@ -2353,19 +2353,19 @@
         <v>214937</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>200346</v>
+        <v>202054</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>225167</v>
+        <v>225316</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8512784820769386</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7934920611117814</v>
+        <v>0.8002534983060183</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8917963578052616</v>
+        <v>0.8923848570335916</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>486</v>
@@ -2374,19 +2374,19 @@
         <v>525218</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>505768</v>
+        <v>507217</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>540712</v>
+        <v>541587</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8659014370581728</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8338354402332392</v>
+        <v>0.8362250762337015</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8914456458075161</v>
+        <v>0.8928894339284645</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>183033</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>156291</v>
+        <v>158111</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>208641</v>
+        <v>210355</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1330304972273066</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1135938181603708</v>
+        <v>0.1149168300121982</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.151642603299543</v>
+        <v>0.1528877348235676</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>137</v>
@@ -2499,19 +2499,19 @@
         <v>153567</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>132329</v>
+        <v>132752</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>178499</v>
+        <v>180122</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1703000622688544</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1467473428144407</v>
+        <v>0.147216606164275</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.197948588015199</v>
+        <v>0.1997483089284087</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>307</v>
@@ -2520,19 +2520,19 @@
         <v>336601</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>303242</v>
+        <v>302557</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>372747</v>
+        <v>375346</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.147786091608714</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1331397933083776</v>
+        <v>0.1328389583477025</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1636562063974429</v>
+        <v>0.1647972711498612</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>1192843</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1167235</v>
+        <v>1165521</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1219585</v>
+        <v>1217765</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8669695027726934</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8483573967004571</v>
+        <v>0.8471122651764323</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8864061818396293</v>
+        <v>0.8850831699878017</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>695</v>
@@ -2570,19 +2570,19 @@
         <v>748178</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>723246</v>
+        <v>721623</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>769416</v>
+        <v>768993</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8296999377311457</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.802051411984801</v>
+        <v>0.8002516910715913</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8532526571855593</v>
+        <v>0.852783393835725</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1818</v>
@@ -2591,19 +2591,19 @@
         <v>1941020</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1904874</v>
+        <v>1902275</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1974379</v>
+        <v>1975064</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.852213908391286</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8363437936025571</v>
+        <v>0.8352027288501388</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8668602066916224</v>
+        <v>0.8671610416522975</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>50691</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39036</v>
+        <v>38969</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62872</v>
+        <v>62084</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3809918847579268</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2933893551813818</v>
+        <v>0.2928890382919234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4725403924785218</v>
+        <v>0.4666183454632703</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -2960,19 +2960,19 @@
         <v>29617</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20839</v>
+        <v>20932</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39596</v>
+        <v>39794</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2959591176988471</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2082403162149262</v>
+        <v>0.2091691494988746</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3956824749968809</v>
+        <v>0.3976609735466523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -2981,19 +2981,19 @@
         <v>80308</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66836</v>
+        <v>66077</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96026</v>
+        <v>96395</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3444905733667871</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2867016378833334</v>
+        <v>0.2834446845876671</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4119182158610872</v>
+        <v>0.4134975637045591</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>82360</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70179</v>
+        <v>70967</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>94015</v>
+        <v>94082</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6190081152420732</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5274596075214781</v>
+        <v>0.5333816545367298</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7066106448186182</v>
+        <v>0.7071109617080766</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -3031,19 +3031,19 @@
         <v>70453</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60474</v>
+        <v>60276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79231</v>
+        <v>79138</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7040408823011528</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6043175250031191</v>
+        <v>0.602339026453347</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7917596837850738</v>
+        <v>0.7908308505011252</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>141</v>
@@ -3052,19 +3052,19 @@
         <v>152812</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>137094</v>
+        <v>136725</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>166284</v>
+        <v>167043</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6555094266332129</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5880817841389125</v>
+        <v>0.5865024362954409</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7132983621166666</v>
+        <v>0.7165553154123327</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>38830</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29172</v>
+        <v>28746</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52132</v>
+        <v>51431</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2280146852091218</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1712981163455413</v>
+        <v>0.1687980265049802</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3061239789363611</v>
+        <v>0.3020075688091731</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -3177,19 +3177,19 @@
         <v>28627</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20236</v>
+        <v>19890</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38438</v>
+        <v>38697</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2518244947164882</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1780062882491456</v>
+        <v>0.1749675064114005</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3381238589323823</v>
+        <v>0.3404053915669307</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -3198,19 +3198,19 @@
         <v>67458</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54508</v>
+        <v>53718</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82116</v>
+        <v>84494</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.237546104798983</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1919446453147671</v>
+        <v>0.1891631292404637</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2891646357566842</v>
+        <v>0.2975371823230838</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>131467</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>118165</v>
+        <v>118866</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>141125</v>
+        <v>141551</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7719853147908782</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6938760210636387</v>
+        <v>0.6979924311908269</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8287018836544586</v>
+        <v>0.8312019734950198</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>81</v>
@@ -3248,19 +3248,19 @@
         <v>85053</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75242</v>
+        <v>74983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>93444</v>
+        <v>93790</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7481755052835118</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6618761410676179</v>
+        <v>0.6595946084330694</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8219937117508544</v>
+        <v>0.8250324935885995</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>202</v>
@@ -3269,19 +3269,19 @@
         <v>216519</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>201861</v>
+        <v>199483</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>229469</v>
+        <v>230259</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.762453895201017</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7108353642433157</v>
+        <v>0.7024628176769159</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8080553546852328</v>
+        <v>0.8108368707595361</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>30673</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21788</v>
+        <v>22364</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40250</v>
+        <v>41340</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2442352017294417</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.173490022659046</v>
+        <v>0.1780735524631637</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3204914954319396</v>
+        <v>0.3291667273502267</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -3394,19 +3394,19 @@
         <v>20811</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13555</v>
+        <v>13474</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28623</v>
+        <v>29179</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2467772007521583</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1607288482046798</v>
+        <v>0.1597681631833191</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3394001881165395</v>
+        <v>0.3459987680448085</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -3415,19 +3415,19 @@
         <v>51485</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40561</v>
+        <v>40104</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63715</v>
+        <v>65002</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2452564143705753</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1932200095231322</v>
+        <v>0.1910404116570502</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.303518426970412</v>
+        <v>0.3096504774933235</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>94916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>85339</v>
+        <v>84249</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103801</v>
+        <v>103225</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7557647982705583</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6795085045680604</v>
+        <v>0.6708332726497733</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.826509977340954</v>
+        <v>0.8219264475368362</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>64</v>
@@ -3465,19 +3465,19 @@
         <v>63522</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>55710</v>
+        <v>55154</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>70778</v>
+        <v>70859</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7532227992478416</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6605998118834608</v>
+        <v>0.6540012319551913</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8392711517953204</v>
+        <v>0.8402318368166807</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>164</v>
@@ -3486,19 +3486,19 @@
         <v>158437</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>146207</v>
+        <v>144920</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>169361</v>
+        <v>169818</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7547435856294247</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6964815730295879</v>
+        <v>0.6903495225066765</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8067799904768678</v>
+        <v>0.8089595883429499</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>17881</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11245</v>
+        <v>10740</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27243</v>
+        <v>26917</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1593930216121399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1002411071320005</v>
+        <v>0.09574238450475202</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2428545377876542</v>
+        <v>0.239946261941153</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -3611,19 +3611,19 @@
         <v>18053</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11622</v>
+        <v>11067</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27649</v>
+        <v>26428</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2205401788372006</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1419708711915414</v>
+        <v>0.1351978581113939</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.337757974358549</v>
+        <v>0.3228480612788598</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -3632,19 +3632,19 @@
         <v>35934</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25964</v>
+        <v>25247</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47411</v>
+        <v>48740</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1851890427367827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1338064488422625</v>
+        <v>0.1301141838682672</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2443378762045743</v>
+        <v>0.2511855124536166</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>94299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>84937</v>
+        <v>85263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>100935</v>
+        <v>101440</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8406069783878601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7571454622123458</v>
+        <v>0.760053738058847</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8997588928679994</v>
+        <v>0.904257615495248</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -3682,19 +3682,19 @@
         <v>63806</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>54210</v>
+        <v>55431</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70237</v>
+        <v>70792</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7794598211627994</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6622420256414511</v>
+        <v>0.6771519387211401</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8580291288084586</v>
+        <v>0.8648021418886062</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>149</v>
@@ -3703,19 +3703,19 @@
         <v>158105</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>146628</v>
+        <v>145299</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>168075</v>
+        <v>168792</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8148109572632173</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7556621237954254</v>
+        <v>0.7488144875463828</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8661935511577373</v>
+        <v>0.8698858161317327</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>12003</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6590</v>
+        <v>6260</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20055</v>
+        <v>19902</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1483154182850648</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08143267901039189</v>
+        <v>0.07735017156990312</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2478079693591251</v>
+        <v>0.2459212298701688</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -3828,19 +3828,19 @@
         <v>12425</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7007</v>
+        <v>6966</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18883</v>
+        <v>19143</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2241979234633308</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.126444453888732</v>
+        <v>0.1256916316973476</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3407423360015562</v>
+        <v>0.3454206865649602</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -3849,19 +3849,19 @@
         <v>24428</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16857</v>
+        <v>16889</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35181</v>
+        <v>34626</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1791576554528687</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1236323636301284</v>
+        <v>0.1238668093623852</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2580221427600505</v>
+        <v>0.2539538615659602</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>68927</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60875</v>
+        <v>61028</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74340</v>
+        <v>74670</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8516845817149351</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7521920306408755</v>
+        <v>0.7540787701298308</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9185673209896084</v>
+        <v>0.9226498284300965</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -3899,19 +3899,19 @@
         <v>42993</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36535</v>
+        <v>36275</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48411</v>
+        <v>48452</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7758020765366692</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6592576639984439</v>
+        <v>0.6545793134350394</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.873555546111268</v>
+        <v>0.8743083683026521</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>114</v>
@@ -3920,19 +3920,19 @@
         <v>111920</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>101167</v>
+        <v>101722</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>119491</v>
+        <v>119459</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8208423445471313</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7419778572399495</v>
+        <v>0.7460461384340403</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8763676363698716</v>
+        <v>0.8761331906376149</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>26543</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18512</v>
+        <v>18313</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35866</v>
+        <v>35612</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2469027880262132</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1721976010831962</v>
+        <v>0.1703502208927586</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3336285635131819</v>
+        <v>0.3312709856647802</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -4045,19 +4045,19 @@
         <v>22289</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15271</v>
+        <v>14988</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30892</v>
+        <v>30594</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2949511698098932</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.202077711131189</v>
+        <v>0.1983391173137038</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4087920614598121</v>
+        <v>0.4048574707818558</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -4066,19 +4066,19 @@
         <v>48832</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38602</v>
+        <v>38083</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62592</v>
+        <v>61795</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2667363199625662</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2108559477154844</v>
+        <v>0.2080252238597033</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.341899628449391</v>
+        <v>0.3375451772516597</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>80959</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71636</v>
+        <v>71890</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>88990</v>
+        <v>89189</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7530972119737868</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6663714364868182</v>
+        <v>0.66872901433522</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8278023989168038</v>
+        <v>0.8296497791072419</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -4116,19 +4116,19 @@
         <v>53279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44676</v>
+        <v>44974</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60297</v>
+        <v>60580</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7050488301901069</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.591207938540188</v>
+        <v>0.5951425292181448</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7979222888688112</v>
+        <v>0.8016608826862963</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>131</v>
@@ -4137,19 +4137,19 @@
         <v>134239</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>120479</v>
+        <v>121276</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>144469</v>
+        <v>144988</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7332636800374338</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6581003715506091</v>
+        <v>0.6624548227483403</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7891440522845156</v>
+        <v>0.7919747761402967</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>142537</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>124171</v>
+        <v>120246</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>163874</v>
+        <v>162162</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3971766866783717</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3460020114234845</v>
+        <v>0.3350634447363309</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.456632909743066</v>
+        <v>0.4518612410725246</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>125</v>
@@ -4262,19 +4262,19 @@
         <v>129907</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>113092</v>
+        <v>111033</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147255</v>
+        <v>145958</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4576669071483023</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3984266315825865</v>
+        <v>0.3911738508272973</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5187835332775497</v>
+        <v>0.514217016547066</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>250</v>
@@ -4283,19 +4283,19 @@
         <v>272444</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>246961</v>
+        <v>248305</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>301337</v>
+        <v>300301</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4238910902829865</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.384243432380684</v>
+        <v>0.3863336715065737</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.468846395419382</v>
+        <v>0.4672342446882842</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>216338</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>195001</v>
+        <v>196713</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>234704</v>
+        <v>238629</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6028233133216283</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5433670902569326</v>
+        <v>0.5481387589274753</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6539979885765154</v>
+        <v>0.6649365552636692</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>148</v>
@@ -4333,19 +4333,19 @@
         <v>153939</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>136591</v>
+        <v>137888</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>170754</v>
+        <v>172813</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5423330928516977</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4812164667224503</v>
+        <v>0.485782983452934</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6015733684174129</v>
+        <v>0.6088261491727024</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>335</v>
@@ -4354,19 +4354,19 @@
         <v>370277</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>341384</v>
+        <v>342420</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>395760</v>
+        <v>394416</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5761089097170135</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5311536045806181</v>
+        <v>0.5327657553117158</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.615756567619316</v>
+        <v>0.6136663284934263</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>24437</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16104</v>
+        <v>15520</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35625</v>
+        <v>35837</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07452243791350317</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04911195352362348</v>
+        <v>0.04732878738669649</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1086403835745689</v>
+        <v>0.1092888862551382</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -4479,19 +4479,19 @@
         <v>35959</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26232</v>
+        <v>25668</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48130</v>
+        <v>47906</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1515939893913749</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1105890609683927</v>
+        <v>0.108208693233599</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2029010417223063</v>
+        <v>0.2019568081557193</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -4500,19 +4500,19 @@
         <v>60396</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>47161</v>
+        <v>46104</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77163</v>
+        <v>76844</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1068729215871007</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08345285529864616</v>
+        <v>0.08158223749686425</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1365423157296747</v>
+        <v>0.1359788834261225</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>303476</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>292288</v>
+        <v>292076</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>311809</v>
+        <v>312393</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9254775620864968</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.891359616425431</v>
+        <v>0.8907111137448616</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9508880464763764</v>
+        <v>0.9526712126133032</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>192</v>
@@ -4550,19 +4550,19 @@
         <v>201248</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>189077</v>
+        <v>189301</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>210975</v>
+        <v>211539</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8484060106086251</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7970989582776937</v>
+        <v>0.7980431918442811</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8894109390316076</v>
+        <v>0.8917913067664011</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>483</v>
@@ -4571,19 +4571,19 @@
         <v>504723</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>487956</v>
+        <v>488275</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>517958</v>
+        <v>519015</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8931270784128993</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8634576842703253</v>
+        <v>0.8640211165738776</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9165471447013538</v>
+        <v>0.9184177625031358</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>343595</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>310307</v>
+        <v>310766</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>378156</v>
+        <v>376439</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2425940892849737</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2190915323097553</v>
+        <v>0.2194150384677822</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2669959674422638</v>
+        <v>0.2657834390605909</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>293</v>
@@ -4696,19 +4696,19 @@
         <v>297689</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>267777</v>
+        <v>271659</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>326753</v>
+        <v>328715</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2884629814004714</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2594779409927973</v>
+        <v>0.2632397326101238</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3166267874905435</v>
+        <v>0.3185282604490743</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>606</v>
@@ -4717,19 +4717,19 @@
         <v>641283</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>595754</v>
+        <v>600635</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>684101</v>
+        <v>689459</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.261928116416238</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2433321168799105</v>
+        <v>0.2453254466744883</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2794167233181518</v>
+        <v>0.2816053054998268</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>1072742</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1038181</v>
+        <v>1039898</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1106030</v>
+        <v>1105571</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7574059107150264</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7330040325577364</v>
+        <v>0.734216560939409</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7809084676902447</v>
+        <v>0.7805849615322178</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>715</v>
@@ -4767,19 +4767,19 @@
         <v>734293</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>705229</v>
+        <v>703267</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>764205</v>
+        <v>760323</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7115370185995286</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6833732125094566</v>
+        <v>0.6814717395509258</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7405220590072029</v>
+        <v>0.7367602673898761</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1719</v>
@@ -4788,19 +4788,19 @@
         <v>1807035</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1764217</v>
+        <v>1758859</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1852564</v>
+        <v>1847683</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7380718835837621</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7205832766818483</v>
+        <v>0.7183946945001731</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7566678831200896</v>
+        <v>0.7546745533255116</v>
       </c>
     </row>
     <row r="30">
